--- a/results/model_data.xlsx
+++ b/results/model_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maksimlyara/Documents/GitHub/atom_hackathon/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{408818DF-8CC3-8448-89C6-1A57F47F7E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94393362-2DB5-E348-8FF7-10275096F286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="1600" windowWidth="28240" windowHeight="17240" xr2:uid="{236E7AB1-9148-DA41-B6B3-9AC04F55BA8B}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>use_case_file_path</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>text_of_usecase</t>
   </si>
@@ -56,16 +53,18 @@
     <t>AVAS</t>
   </si>
   <si>
-    <t>use_case_file_path информация</t>
-  </si>
-  <si>
-    <t>text_of_usecase что-то тут написано</t>
-  </si>
-  <si>
-    <t>саммари…апавпвп.ва</t>
-  </si>
-  <si>
-    <t>я считаю что юзкейс плохой</t>
+    <t>The use case is correct as it aligns with the regulation text, which allows sound emission from the vehicle when driving below 32 km/h or in reverse to alert pedestrians. The AVAS can operate independently of the internal combustion engine, complying with the specified requirements.</t>
+  </si>
+  <si>
+    <t>Acoustics characteristics
+The sound emitted by the vehicle type submitted for approval shall be measured by the methods described in Annex 3 to this Regulation.
+The specifications of this Regulation are applicable for the speed range of greater than 0 km/h up to and inclusive 20 km/h. Operation of an AVAS is permitted at vehicle speeds outside the specification range. AVAS may be operational independent of the operation of an internal combustion engine inside or outside of the specified operation range.
+If the vehicle that is not equipped with an AVAS fulfils the overall levels as specified in Table 2 below with a margin of +3 dB(A), the specification for one-third octave bands and the frequency shift do not apply.an internal combustion engine inside or outside of the specified operation range. 
+Frequency shift to signify acceleration and deceleration
+The intention of frequency shift is to acoustically inform road users about the change in vehicle speed.</t>
+  </si>
+  <si>
+    <t>text_of_usecase что-то тут наPreconditions - driving below approximately 32 km/h or while driving in reverse Main Scenario - Car emit sound out_27, because EV operate quietly, and this sound helps to alert pedestrians of your oncoming vehicle.писано</t>
   </si>
 </sst>
 </file>
@@ -102,8 +101,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -438,22 +440,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F53A087-55A4-9D4D-A075-EFA2C2AFCE54}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,25 +467,19 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
